--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H2">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I2">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J2">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.372720066216599</v>
+        <v>10.28467933333333</v>
       </c>
       <c r="N2">
-        <v>9.372720066216599</v>
+        <v>30.854038</v>
       </c>
       <c r="O2">
-        <v>0.1149905454773203</v>
+        <v>0.113655682908653</v>
       </c>
       <c r="P2">
-        <v>0.1149905454773203</v>
+        <v>0.11797514492277</v>
       </c>
       <c r="Q2">
-        <v>179.6060592712818</v>
+        <v>198.6914547232476</v>
       </c>
       <c r="R2">
-        <v>179.6060592712818</v>
+        <v>1788.223092509228</v>
       </c>
       <c r="S2">
-        <v>0.01220023071161999</v>
+        <v>0.01133593687959245</v>
       </c>
       <c r="T2">
-        <v>0.01220023071161999</v>
+        <v>0.01194690229888421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H3">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I3">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J3">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.59308838245476</v>
+        <v>1.769189333333333</v>
       </c>
       <c r="N3">
-        <v>1.59308838245476</v>
+        <v>5.307568</v>
       </c>
       <c r="O3">
-        <v>0.0195450307699205</v>
+        <v>0.01955125827044465</v>
       </c>
       <c r="P3">
-        <v>0.0195450307699205</v>
+        <v>0.02029430001957787</v>
       </c>
       <c r="Q3">
-        <v>30.52777896086882</v>
+        <v>34.17926713393422</v>
       </c>
       <c r="R3">
-        <v>30.52777896086882</v>
+        <v>307.613404205408</v>
       </c>
       <c r="S3">
-        <v>0.002073682524671319</v>
+        <v>0.00195002857752832</v>
       </c>
       <c r="T3">
-        <v>0.002073682524671319</v>
+        <v>0.002055127965444402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H4">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I4">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J4">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.975554932567</v>
+        <v>34.039953</v>
       </c>
       <c r="N4">
-        <v>30.975554932567</v>
+        <v>102.119859</v>
       </c>
       <c r="O4">
-        <v>0.3800279889929943</v>
+        <v>0.3761744998557516</v>
       </c>
       <c r="P4">
-        <v>0.3800279889929943</v>
+        <v>0.3904709381967389</v>
       </c>
       <c r="Q4">
-        <v>593.5734040785452</v>
+        <v>657.623593412406</v>
       </c>
       <c r="R4">
-        <v>593.5734040785452</v>
+        <v>5918.612340711654</v>
       </c>
       <c r="S4">
-        <v>0.04032008999819867</v>
+        <v>0.0375193767433903</v>
       </c>
       <c r="T4">
-        <v>0.04032008999819867</v>
+        <v>0.03954153353440581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H5">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I5">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J5">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.6278639226689</v>
+        <v>34.45657633333334</v>
       </c>
       <c r="N5">
-        <v>29.6278639226689</v>
+        <v>103.369729</v>
       </c>
       <c r="O5">
-        <v>0.3634936506933102</v>
+        <v>0.3807785918192425</v>
       </c>
       <c r="P5">
-        <v>0.3634936506933102</v>
+        <v>0.395250007775399</v>
       </c>
       <c r="Q5">
-        <v>567.7480865940726</v>
+        <v>665.6724098595416</v>
       </c>
       <c r="R5">
-        <v>567.7480865940726</v>
+        <v>5991.051688735874</v>
       </c>
       <c r="S5">
-        <v>0.03856583497590288</v>
+        <v>0.03797858559727504</v>
       </c>
       <c r="T5">
-        <v>0.03856583497590288</v>
+        <v>0.04002549206120567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H6">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I6">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J6">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.93938740272694</v>
+        <v>9.939396</v>
       </c>
       <c r="N6">
-        <v>9.93938740272694</v>
+        <v>19.878792</v>
       </c>
       <c r="O6">
-        <v>0.1219427840664546</v>
+        <v>0.1098399671459082</v>
       </c>
       <c r="P6">
-        <v>0.1219427840664546</v>
+        <v>0.0760096090855142</v>
       </c>
       <c r="Q6">
-        <v>190.464901369343</v>
+        <v>192.020867768792</v>
       </c>
       <c r="R6">
-        <v>190.464901369343</v>
+        <v>1152.125206612752</v>
       </c>
       <c r="S6">
-        <v>0.01293784713388832</v>
+        <v>0.01095536010657085</v>
       </c>
       <c r="T6">
-        <v>0.01293784713388832</v>
+        <v>0.007697209222463559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H7">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I7">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J7">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.372720066216599</v>
+        <v>10.28467933333333</v>
       </c>
       <c r="N7">
-        <v>9.372720066216599</v>
+        <v>30.854038</v>
       </c>
       <c r="O7">
-        <v>0.1149905454773203</v>
+        <v>0.113655682908653</v>
       </c>
       <c r="P7">
-        <v>0.1149905454773203</v>
+        <v>0.11797514492277</v>
       </c>
       <c r="Q7">
-        <v>1152.403834360667</v>
+        <v>1309.941378806662</v>
       </c>
       <c r="R7">
-        <v>1152.403834360667</v>
+        <v>11789.47240925996</v>
       </c>
       <c r="S7">
-        <v>0.07828016888294205</v>
+        <v>0.07473604140048197</v>
       </c>
       <c r="T7">
-        <v>0.07828016888294205</v>
+        <v>0.07876403991136409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H8">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I8">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J8">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.59308838245476</v>
+        <v>1.769189333333333</v>
       </c>
       <c r="N8">
-        <v>1.59308838245476</v>
+        <v>5.307568</v>
       </c>
       <c r="O8">
-        <v>0.0195450307699205</v>
+        <v>0.01955125827044465</v>
       </c>
       <c r="P8">
-        <v>0.0195450307699205</v>
+        <v>0.02029430001957787</v>
       </c>
       <c r="Q8">
-        <v>195.8749591843269</v>
+        <v>225.3385097934382</v>
       </c>
       <c r="R8">
-        <v>195.8749591843269</v>
+        <v>2028.046588140944</v>
       </c>
       <c r="S8">
-        <v>0.01330534004461642</v>
+        <v>0.01285623041573596</v>
       </c>
       <c r="T8">
-        <v>0.01330534004461642</v>
+        <v>0.01354913408041692</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H9">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I9">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J9">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.975554932567</v>
+        <v>34.039953</v>
       </c>
       <c r="N9">
-        <v>30.975554932567</v>
+        <v>102.119859</v>
       </c>
       <c r="O9">
-        <v>0.3800279889929943</v>
+        <v>0.3761744998557516</v>
       </c>
       <c r="P9">
-        <v>0.3800279889929943</v>
+        <v>0.3904709381967389</v>
       </c>
       <c r="Q9">
-        <v>3808.536691968963</v>
+        <v>4335.608483466633</v>
       </c>
       <c r="R9">
-        <v>3808.536691968963</v>
+        <v>39020.47635119969</v>
       </c>
       <c r="S9">
-        <v>0.2587052268960998</v>
+        <v>0.2473593248972915</v>
       </c>
       <c r="T9">
-        <v>0.2587052268960998</v>
+        <v>0.2606910852323081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H10">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I10">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J10">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.6278639226689</v>
+        <v>34.45657633333334</v>
       </c>
       <c r="N10">
-        <v>29.6278639226689</v>
+        <v>103.369729</v>
       </c>
       <c r="O10">
-        <v>0.3634936506933102</v>
+        <v>0.3807785918192425</v>
       </c>
       <c r="P10">
-        <v>0.3634936506933102</v>
+        <v>0.395250007775399</v>
       </c>
       <c r="Q10">
-        <v>3642.834070278812</v>
+        <v>4388.673059037879</v>
       </c>
       <c r="R10">
-        <v>3642.834070278812</v>
+        <v>39498.05753134091</v>
       </c>
       <c r="S10">
-        <v>0.2474494250465273</v>
+        <v>0.2503868163415304</v>
       </c>
       <c r="T10">
-        <v>0.2474494250465273</v>
+        <v>0.2638817473610063</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H11">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I11">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J11">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.93938740272694</v>
+        <v>9.939396</v>
       </c>
       <c r="N11">
-        <v>9.93938740272694</v>
+        <v>19.878792</v>
       </c>
       <c r="O11">
-        <v>0.1219427840664546</v>
+        <v>0.1098399671459082</v>
       </c>
       <c r="P11">
-        <v>0.1219427840664546</v>
+        <v>0.0760096090855142</v>
       </c>
       <c r="Q11">
-        <v>1222.077270331007</v>
+        <v>1265.963252597156</v>
       </c>
       <c r="R11">
-        <v>1222.077270331007</v>
+        <v>7595.779515582937</v>
       </c>
       <c r="S11">
-        <v>0.083012926768496</v>
+        <v>0.07222695884588443</v>
       </c>
       <c r="T11">
-        <v>0.083012926768496</v>
+        <v>0.05074648467334179</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.6741777959619</v>
+        <v>18.657769</v>
       </c>
       <c r="H12">
-        <v>15.6741777959619</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I12">
-        <v>0.08678313607818437</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J12">
-        <v>0.08678313607818437</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.372720066216599</v>
+        <v>10.28467933333333</v>
       </c>
       <c r="N12">
-        <v>9.372720066216599</v>
+        <v>30.854038</v>
       </c>
       <c r="O12">
-        <v>0.1149905454773203</v>
+        <v>0.113655682908653</v>
       </c>
       <c r="P12">
-        <v>0.1149905454773203</v>
+        <v>0.11797514492277</v>
       </c>
       <c r="Q12">
-        <v>146.9096807496588</v>
+        <v>191.8891712404073</v>
       </c>
       <c r="R12">
-        <v>146.9096807496588</v>
+        <v>1727.002541163666</v>
       </c>
       <c r="S12">
-        <v>0.009979240155862937</v>
+        <v>0.01094784642896901</v>
       </c>
       <c r="T12">
-        <v>0.009979240155862937</v>
+        <v>0.01153789519642981</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.6741777959619</v>
+        <v>18.657769</v>
       </c>
       <c r="H13">
-        <v>15.6741777959619</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I13">
-        <v>0.08678313607818437</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J13">
-        <v>0.08678313607818437</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.59308838245476</v>
+        <v>1.769189333333333</v>
       </c>
       <c r="N13">
-        <v>1.59308838245476</v>
+        <v>5.307568</v>
       </c>
       <c r="O13">
-        <v>0.0195450307699205</v>
+        <v>0.01955125827044465</v>
       </c>
       <c r="P13">
-        <v>0.0195450307699205</v>
+        <v>0.02029430001957787</v>
       </c>
       <c r="Q13">
-        <v>24.97035055127726</v>
+        <v>33.00912589859733</v>
       </c>
       <c r="R13">
-        <v>24.97035055127726</v>
+        <v>297.082133087376</v>
       </c>
       <c r="S13">
-        <v>0.001696179064958311</v>
+        <v>0.001883268549008405</v>
       </c>
       <c r="T13">
-        <v>0.001696179064958311</v>
+        <v>0.001984769816253048</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.6741777959619</v>
+        <v>18.657769</v>
       </c>
       <c r="H14">
-        <v>15.6741777959619</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I14">
-        <v>0.08678313607818437</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J14">
-        <v>0.08678313607818437</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.975554932567</v>
+        <v>34.039953</v>
       </c>
       <c r="N14">
-        <v>30.975554932567</v>
+        <v>102.119859</v>
       </c>
       <c r="O14">
-        <v>0.3800279889929943</v>
+        <v>0.3761744998557516</v>
       </c>
       <c r="P14">
-        <v>0.3800279889929943</v>
+        <v>0.3904709381967389</v>
       </c>
       <c r="Q14">
-        <v>485.5163553416398</v>
+        <v>635.1095798448569</v>
       </c>
       <c r="R14">
-        <v>485.5163553416398</v>
+        <v>5715.986218603712</v>
       </c>
       <c r="S14">
-        <v>0.03298002068229778</v>
+        <v>0.03623488548500423</v>
       </c>
       <c r="T14">
-        <v>0.03298002068229778</v>
+        <v>0.03818781290851424</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.6741777959619</v>
+        <v>18.657769</v>
       </c>
       <c r="H15">
-        <v>15.6741777959619</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I15">
-        <v>0.08678313607818437</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J15">
-        <v>0.08678313607818437</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.6278639226689</v>
+        <v>34.45657633333334</v>
       </c>
       <c r="N15">
-        <v>29.6278639226689</v>
+        <v>103.369729</v>
       </c>
       <c r="O15">
-        <v>0.3634936506933102</v>
+        <v>0.3807785918192425</v>
       </c>
       <c r="P15">
-        <v>0.3634936506933102</v>
+        <v>0.395250007775399</v>
       </c>
       <c r="Q15">
-        <v>464.3924068384775</v>
+        <v>642.8828417582004</v>
       </c>
       <c r="R15">
-        <v>464.3924068384775</v>
+        <v>5785.945575823803</v>
       </c>
       <c r="S15">
-        <v>0.03154511895167356</v>
+        <v>0.036678373135346</v>
       </c>
       <c r="T15">
-        <v>0.03154511895167356</v>
+        <v>0.03865520291656317</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.6741777959619</v>
+        <v>18.657769</v>
       </c>
       <c r="H16">
-        <v>15.6741777959619</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I16">
-        <v>0.08678313607818437</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J16">
-        <v>0.08678313607818437</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.93938740272694</v>
+        <v>9.939396</v>
       </c>
       <c r="N16">
-        <v>9.93938740272694</v>
+        <v>19.878792</v>
       </c>
       <c r="O16">
-        <v>0.1219427840664546</v>
+        <v>0.1098399671459082</v>
       </c>
       <c r="P16">
-        <v>0.1219427840664546</v>
+        <v>0.0760096090855142</v>
       </c>
       <c r="Q16">
-        <v>155.791725333286</v>
+        <v>185.446954567524</v>
       </c>
       <c r="R16">
-        <v>155.791725333286</v>
+        <v>1112.681727405144</v>
       </c>
       <c r="S16">
-        <v>0.01058257722339178</v>
+        <v>0.01058029885793641</v>
       </c>
       <c r="T16">
-        <v>0.01058257722339178</v>
+        <v>0.007433692106285319</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.2624949511748</v>
+        <v>19.589352</v>
       </c>
       <c r="H17">
-        <v>15.2624949511748</v>
+        <v>58.768056</v>
       </c>
       <c r="I17">
-        <v>0.08450377388099038</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J17">
-        <v>0.08450377388099038</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.372720066216599</v>
+        <v>10.28467933333333</v>
       </c>
       <c r="N17">
-        <v>9.372720066216599</v>
+        <v>30.854038</v>
       </c>
       <c r="O17">
-        <v>0.1149905454773203</v>
+        <v>0.113655682908653</v>
       </c>
       <c r="P17">
-        <v>0.1149905454773203</v>
+        <v>0.11797514492277</v>
       </c>
       <c r="Q17">
-        <v>143.0510926894056</v>
+        <v>201.470203667792</v>
       </c>
       <c r="R17">
-        <v>143.0510926894056</v>
+        <v>1813.231833010128</v>
       </c>
       <c r="S17">
-        <v>0.009717135053467217</v>
+        <v>0.01149447274960994</v>
       </c>
       <c r="T17">
-        <v>0.009717135053467217</v>
+        <v>0.01211398267080982</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.2624949511748</v>
+        <v>19.589352</v>
       </c>
       <c r="H18">
-        <v>15.2624949511748</v>
+        <v>58.768056</v>
       </c>
       <c r="I18">
-        <v>0.08450377388099038</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J18">
-        <v>0.08450377388099038</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.59308838245476</v>
+        <v>1.769189333333333</v>
       </c>
       <c r="N18">
-        <v>1.59308838245476</v>
+        <v>5.307568</v>
       </c>
       <c r="O18">
-        <v>0.0195450307699205</v>
+        <v>0.01955125827044465</v>
       </c>
       <c r="P18">
-        <v>0.0195450307699205</v>
+        <v>0.02029430001957787</v>
       </c>
       <c r="Q18">
-        <v>24.314503393991</v>
+        <v>34.657272605312</v>
       </c>
       <c r="R18">
-        <v>24.314503393991</v>
+        <v>311.915453447808</v>
       </c>
       <c r="S18">
-        <v>0.001651628860678361</v>
+        <v>0.00197730020760011</v>
       </c>
       <c r="T18">
-        <v>0.001651628860678361</v>
+        <v>0.002083869436348809</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.2624949511748</v>
+        <v>19.589352</v>
       </c>
       <c r="H19">
-        <v>15.2624949511748</v>
+        <v>58.768056</v>
       </c>
       <c r="I19">
-        <v>0.08450377388099038</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J19">
-        <v>0.08450377388099038</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.975554932567</v>
+        <v>34.039953</v>
       </c>
       <c r="N19">
-        <v>30.975554932567</v>
+        <v>102.119859</v>
       </c>
       <c r="O19">
-        <v>0.3800279889929943</v>
+        <v>0.3761744998557516</v>
       </c>
       <c r="P19">
-        <v>0.3800279889929943</v>
+        <v>0.3904709381967389</v>
       </c>
       <c r="Q19">
-        <v>472.7642507681415</v>
+        <v>666.820621380456</v>
       </c>
       <c r="R19">
-        <v>472.7642507681415</v>
+        <v>6001.385592424103</v>
       </c>
       <c r="S19">
-        <v>0.03211379925031149</v>
+        <v>0.03804409447053603</v>
       </c>
       <c r="T19">
-        <v>0.03211379925031149</v>
+        <v>0.04009453162245869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.2624949511748</v>
+        <v>19.589352</v>
       </c>
       <c r="H20">
-        <v>15.2624949511748</v>
+        <v>58.768056</v>
       </c>
       <c r="I20">
-        <v>0.08450377388099038</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J20">
-        <v>0.08450377388099038</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.6278639226689</v>
+        <v>34.45657633333334</v>
       </c>
       <c r="N20">
-        <v>29.6278639226689</v>
+        <v>103.369729</v>
       </c>
       <c r="O20">
-        <v>0.3634936506933102</v>
+        <v>0.3807785918192425</v>
       </c>
       <c r="P20">
-        <v>0.3634936506933102</v>
+        <v>0.395250007775399</v>
       </c>
       <c r="Q20">
-        <v>452.1951235338281</v>
+        <v>674.9820025085362</v>
       </c>
       <c r="R20">
-        <v>452.1951235338281</v>
+        <v>6074.838022576824</v>
       </c>
       <c r="S20">
-        <v>0.03071658526536319</v>
+        <v>0.03850972547337447</v>
       </c>
       <c r="T20">
-        <v>0.03071658526536319</v>
+        <v>0.04058525842848535</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.2624949511748</v>
+        <v>19.589352</v>
       </c>
       <c r="H21">
-        <v>15.2624949511748</v>
+        <v>58.768056</v>
       </c>
       <c r="I21">
-        <v>0.08450377388099038</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J21">
-        <v>0.08450377388099038</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.93938740272694</v>
+        <v>9.939396</v>
       </c>
       <c r="N21">
-        <v>9.93938740272694</v>
+        <v>19.878792</v>
       </c>
       <c r="O21">
-        <v>0.1219427840664546</v>
+        <v>0.1098399671459082</v>
       </c>
       <c r="P21">
-        <v>0.1219427840664546</v>
+        <v>0.0760096090855142</v>
       </c>
       <c r="Q21">
-        <v>151.6998500518903</v>
+        <v>194.706326911392</v>
       </c>
       <c r="R21">
-        <v>151.6998500518903</v>
+        <v>1168.237961468352</v>
       </c>
       <c r="S21">
-        <v>0.01030462545117011</v>
+        <v>0.01110857351665756</v>
       </c>
       <c r="T21">
-        <v>0.01030462545117011</v>
+        <v>0.007804856589747925</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.56088602196535</v>
+        <v>8.76216</v>
       </c>
       <c r="H22">
-        <v>7.56088602196535</v>
+        <v>17.52432</v>
       </c>
       <c r="I22">
-        <v>0.04186231705786223</v>
+        <v>0.04523650132067659</v>
       </c>
       <c r="J22">
-        <v>0.04186231705786223</v>
+        <v>0.03061937196726285</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.372720066216599</v>
+        <v>10.28467933333333</v>
       </c>
       <c r="N22">
-        <v>9.372720066216599</v>
+        <v>30.854038</v>
       </c>
       <c r="O22">
-        <v>0.1149905454773203</v>
+        <v>0.113655682908653</v>
       </c>
       <c r="P22">
-        <v>0.1149905454773203</v>
+        <v>0.11797514492277</v>
       </c>
       <c r="Q22">
-        <v>70.86606813645125</v>
+        <v>90.11600586736002</v>
       </c>
       <c r="R22">
-        <v>70.86606813645125</v>
+        <v>540.69603520416</v>
       </c>
       <c r="S22">
-        <v>0.004813770673428108</v>
+        <v>0.005141385449999683</v>
       </c>
       <c r="T22">
-        <v>0.004813770673428108</v>
+        <v>0.003612324845282035</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.56088602196535</v>
+        <v>8.76216</v>
       </c>
       <c r="H23">
-        <v>7.56088602196535</v>
+        <v>17.52432</v>
       </c>
       <c r="I23">
-        <v>0.04186231705786223</v>
+        <v>0.04523650132067659</v>
       </c>
       <c r="J23">
-        <v>0.04186231705786223</v>
+        <v>0.03061937196726285</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.59308838245476</v>
+        <v>1.769189333333333</v>
       </c>
       <c r="N23">
-        <v>1.59308838245476</v>
+        <v>5.307568</v>
       </c>
       <c r="O23">
-        <v>0.0195450307699205</v>
+        <v>0.01955125827044465</v>
       </c>
       <c r="P23">
-        <v>0.0195450307699205</v>
+        <v>0.02029430001957787</v>
       </c>
       <c r="Q23">
-        <v>12.04515968265758</v>
+        <v>15.50192000896</v>
       </c>
       <c r="R23">
-        <v>12.04515968265758</v>
+        <v>93.01152005375999</v>
       </c>
       <c r="S23">
-        <v>0.0008182002749960849</v>
+        <v>0.0008844305205718587</v>
       </c>
       <c r="T23">
-        <v>0.0008182002749960849</v>
+        <v>0.0006213987211146844</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.56088602196535</v>
+        <v>8.76216</v>
       </c>
       <c r="H24">
-        <v>7.56088602196535</v>
+        <v>17.52432</v>
       </c>
       <c r="I24">
-        <v>0.04186231705786223</v>
+        <v>0.04523650132067659</v>
       </c>
       <c r="J24">
-        <v>0.04186231705786223</v>
+        <v>0.03061937196726285</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.975554932567</v>
+        <v>34.039953</v>
       </c>
       <c r="N24">
-        <v>30.975554932567</v>
+        <v>102.119859</v>
       </c>
       <c r="O24">
-        <v>0.3800279889929943</v>
+        <v>0.3761744998557516</v>
       </c>
       <c r="P24">
-        <v>0.3800279889929943</v>
+        <v>0.3904709381967389</v>
       </c>
       <c r="Q24">
-        <v>234.2026403122657</v>
+        <v>298.2635145784799</v>
       </c>
       <c r="R24">
-        <v>234.2026403122657</v>
+        <v>1789.58108747088</v>
       </c>
       <c r="S24">
-        <v>0.0159088521660865</v>
+        <v>0.01701681825952956</v>
       </c>
       <c r="T24">
-        <v>0.0159088521660865</v>
+        <v>0.01195597489905205</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.56088602196535</v>
+        <v>8.76216</v>
       </c>
       <c r="H25">
-        <v>7.56088602196535</v>
+        <v>17.52432</v>
       </c>
       <c r="I25">
-        <v>0.04186231705786223</v>
+        <v>0.04523650132067659</v>
       </c>
       <c r="J25">
-        <v>0.04186231705786223</v>
+        <v>0.03061937196726285</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.6278639226689</v>
+        <v>34.45657633333334</v>
       </c>
       <c r="N25">
-        <v>29.6278639226689</v>
+        <v>103.369729</v>
       </c>
       <c r="O25">
-        <v>0.3634936506933102</v>
+        <v>0.3807785918192425</v>
       </c>
       <c r="P25">
-        <v>0.3634936506933102</v>
+        <v>0.395250007775399</v>
       </c>
       <c r="Q25">
-        <v>224.0129021935988</v>
+        <v>301.91403488488</v>
       </c>
       <c r="R25">
-        <v>224.0129021935988</v>
+        <v>1811.48420930928</v>
       </c>
       <c r="S25">
-        <v>0.01521668645384317</v>
+        <v>0.01722509127171653</v>
       </c>
       <c r="T25">
-        <v>0.01521668645384317</v>
+        <v>0.01210230700813848</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.56088602196535</v>
+        <v>8.76216</v>
       </c>
       <c r="H26">
-        <v>7.56088602196535</v>
+        <v>17.52432</v>
       </c>
       <c r="I26">
-        <v>0.04186231705786223</v>
+        <v>0.04523650132067659</v>
       </c>
       <c r="J26">
-        <v>0.04186231705786223</v>
+        <v>0.03061937196726285</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.93938740272694</v>
+        <v>9.939396</v>
       </c>
       <c r="N26">
-        <v>9.93938740272694</v>
+        <v>19.878792</v>
       </c>
       <c r="O26">
-        <v>0.1219427840664546</v>
+        <v>0.1098399671459082</v>
       </c>
       <c r="P26">
-        <v>0.1219427840664546</v>
+        <v>0.0760096090855142</v>
       </c>
       <c r="Q26">
-        <v>75.15057528017661</v>
+        <v>87.09057805536</v>
       </c>
       <c r="R26">
-        <v>75.15057528017661</v>
+        <v>348.36231222144</v>
       </c>
       <c r="S26">
-        <v>0.005104807489508352</v>
+        <v>0.004968775818858948</v>
       </c>
       <c r="T26">
-        <v>0.005104807489508352</v>
+        <v>0.002327366493675601</v>
       </c>
     </row>
   </sheetData>
